--- a/outputs-r202/o__Erysipelotrichales.xlsx
+++ b/outputs-r202/o__Erysipelotrichales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -754,6 +824,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -775,6 +850,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -796,6 +876,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -817,6 +902,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -838,6 +928,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -859,6 +954,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -880,6 +980,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -901,6 +1006,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -922,6 +1032,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -943,6 +1058,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -964,6 +1084,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -985,6 +1110,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1006,6 +1136,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1027,6 +1162,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1048,6 +1188,11 @@
           <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>f__Erysipelatoclostridiaceae</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1069,6 +1214,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1090,6 +1240,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1111,6 +1266,11 @@
           <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1128,6 +1288,11 @@
         <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Erysipelotrichaceae</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>f__Erysipelotrichaceae</t>
         </is>

--- a/outputs-r202/o__Erysipelotrichales.xlsx
+++ b/outputs-r202/o__Erysipelotrichales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.316638698861187</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>-1.316638698861187</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.316638698861187</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.346998979147175</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>-1.346998979147175</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.346998979147175</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -521,17 +521,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG052.fasta</t>
+          <t>RUG049.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-4.640919328411032</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4.640919328411032</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4.640919328411032</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -547,17 +547,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG053.fasta</t>
+          <t>RUG052.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-3.261819350917358</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3.261819350917358</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3.261819350917358</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,17 +573,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG054.fasta</t>
+          <t>RUG053.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-4.557895341418441</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4.557895341418441</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4.557895341418441</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -599,43 +599,43 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG123.fasta</t>
+          <t>RUG054.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999999999999778</v>
+        <v>-3.45683400650531</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>3.45683400650531</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999999778</v>
+        <v>3.45683400650531</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG128.fasta</t>
+          <t>RUG123.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.280969464603734</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>-1.280969464603734</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.280969464603734</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -651,17 +651,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG214.fasta</t>
+          <t>RUG128.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.3337820073913527</v>
       </c>
       <c r="C9" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>-0.3337820073913527</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.3337820073913527</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -670,24 +670,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelatoclostridiaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG222.fasta</t>
+          <t>RUG214.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.8254966498902668</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>-0.8254966498902668</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.8254966498902668</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -703,17 +703,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG246.fasta</t>
+          <t>RUG222.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.5633462758296947</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>-0.5633462758296947</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.5633462758296947</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -722,24 +722,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelatoclostridiaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG261.fasta</t>
+          <t>RUG246.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999778</v>
+        <v>2.164652471092499</v>
       </c>
       <c r="C12" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>-2.164652471092499</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999999778</v>
+        <v>2.164652471092499</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -755,17 +755,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG262.fasta</t>
+          <t>RUG261.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.188165358835464</v>
       </c>
       <c r="C13" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>-1.188165358835464</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.188165358835464</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -781,17 +781,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG286.fasta</t>
+          <t>RUG262.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.259689653952508</v>
       </c>
       <c r="C14" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>-1.259689653952508</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.259689653952508</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -807,17 +807,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG287.fasta</t>
+          <t>RUG286.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.370721404944527</v>
       </c>
       <c r="C15" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>-1.370721404944527</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.370721404944527</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -833,17 +833,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG319.fasta</t>
+          <t>RUG287.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.514342105295586</v>
       </c>
       <c r="C16" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>-1.514342105295586</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.514342105295586</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -859,43 +859,43 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG374.fasta</t>
+          <t>RUG319.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.550270122329072</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>-1.550270122329072</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>1.550270122329072</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>f__Erysipelotrichaceae</t>
+          <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>f__Erysipelotrichaceae</t>
+          <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG503.fasta</t>
+          <t>RUG374.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-2.476511605663037</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2.476511605663037</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2.476511605663037</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -911,17 +911,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG584.fasta</t>
+          <t>RUG503.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-4.256278805085657</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4.256278805085657</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>4.256278805085657</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -937,121 +937,121 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG655.fasta</t>
+          <t>RUG584.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999999999999778</v>
+        <v>-1.334553657372665</v>
       </c>
       <c r="C20" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.334553657372665</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999999999999778</v>
+        <v>1.334553657372665</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG809.fasta</t>
+          <t>RUG655.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.331895095160306</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>-0.331895095160306</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.331895095160306</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>f__Erysipelotrichaceae</t>
+          <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>f__Erysipelotrichaceae</t>
+          <t>f__Erysipelatoclostridiaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>hRUG852.fasta</t>
+          <t>RUG809.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999999999999778</v>
+        <v>-0.2782925060268944</v>
       </c>
       <c r="C22" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.2782925060268944</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.2782925060268944</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>hRUG876.fasta</t>
+          <t>hRUG852.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.8165503158621904</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>-0.8165503158621904</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.8165503158621904</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>f__Erysipelotrichaceae</t>
+          <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>f__Erysipelotrichaceae</t>
+          <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>hRUG895.fasta</t>
+          <t>hRUG876.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-2.944816419305914</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2.944816419305914</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2.944816419305914</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-3.777574324633955</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3.777574324633955</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>3.777574324633955</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-2.432729548148163</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2.432729548148163</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2.432729548148163</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1111,188 +1111,6 @@
         </is>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>RUG655.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>f__Erysipelatoclostridiaceae</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>f__Erysipelatoclostridiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>RUG809.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.1976744</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.8023256</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.8023256</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>hRUG852.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>f__Erysipelatoclostridiaceae</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>f__Erysipelatoclostridiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>hRUG876.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>hRUG895.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>hRUG902.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>hRUG912.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
         <is>
           <t>f__Erysipelotrichaceae</t>
         </is>

--- a/outputs-r202/o__Erysipelotrichales.xlsx
+++ b/outputs-r202/o__Erysipelotrichales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.316638698861187</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.316638698861187</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.316638698861187</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.346998979147175</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.346998979147175</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>1.346998979147175</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4.640919328411032</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.640919328411032</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4.640919328411032</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -547,17 +547,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG052.fasta</t>
+          <t>RUG050.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.261819350917358</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.261819350917358</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>3.261819350917358</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,17 +573,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG053.fasta</t>
+          <t>RUG051.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.557895341418441</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.557895341418441</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>4.557895341418441</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -599,17 +599,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG054.fasta</t>
+          <t>RUG052.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.45683400650531</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.45683400650531</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>3.45683400650531</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -625,69 +625,69 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG123.fasta</t>
+          <t>RUG053.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.280969464603734</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.280969464603734</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.280969464603734</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG128.fasta</t>
+          <t>RUG054.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3337820073913527</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3337820073913527</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3337820073913527</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae(reject)</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG214.fasta</t>
+          <t>RUG123.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8254966498902668</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.8254966498902668</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8254966498902668</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -703,17 +703,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG222.fasta</t>
+          <t>RUG261.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5633462758296947</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5633462758296947</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5633462758296947</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -722,24 +722,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae(reject)</t>
+          <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG246.fasta</t>
+          <t>RUG262.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.164652471092499</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.164652471092499</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>2.164652471092499</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -755,17 +755,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG261.fasta</t>
+          <t>RUG286.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.188165358835464</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.188165358835464</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>1.188165358835464</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -781,17 +781,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG262.fasta</t>
+          <t>RUG287.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.259689653952508</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.259689653952508</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>1.259689653952508</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -807,17 +807,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG286.fasta</t>
+          <t>RUG319.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.370721404944527</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.370721404944527</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>1.370721404944527</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -833,95 +833,95 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG287.fasta</t>
+          <t>RUG374.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.514342105295586</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.514342105295586</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1.514342105295586</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG319.fasta</t>
+          <t>RUG503.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.550270122329072</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.550270122329072</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1.550270122329072</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG374.fasta</t>
+          <t>RUG655.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.476511605663037</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C18" t="n">
-        <v>2.476511605663037</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>2.476511605663037</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>f__Erysipelotrichaceae</t>
+          <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>f__Erysipelotrichaceae</t>
+          <t>f__Erysipelatoclostridiaceae</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG503.fasta</t>
+          <t>hRUG876.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4.256278805085657</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.256278805085657</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>4.256278805085657</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -937,17 +937,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG584.fasta</t>
+          <t>hRUG902.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.334553657372665</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.334553657372665</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1.334553657372665</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -963,154 +963,24 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG655.fasta</t>
+          <t>hRUG912.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.331895095160306</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.331895095160306</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.331895095160306</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>f__Erysipelatoclostridiaceae</t>
+          <t>f__Erysipelotrichaceae</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
-        <is>
-          <t>f__Erysipelatoclostridiaceae(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>RUG809.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.2782925060268944</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2782925060268944</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.2782925060268944</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>hRUG852.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.8165503158621904</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-0.8165503158621904</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.8165503158621904</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>f__Erysipelatoclostridiaceae</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>f__Erysipelatoclostridiaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>hRUG876.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-2.944816419305914</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2.944816419305914</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2.944816419305914</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>hRUG902.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-3.777574324633955</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3.777574324633955</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3.777574324633955</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>hRUG912.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-2.432729548148163</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.432729548148163</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2.432729548148163</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>f__Erysipelotrichaceae</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
         <is>
           <t>f__Erysipelotrichaceae</t>
         </is>
